--- a/biology/Botanique/Crotalaria_leprieurii/Crotalaria_leprieurii.xlsx
+++ b/biology/Botanique/Crotalaria_leprieurii/Crotalaria_leprieurii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalaria leprieurii est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalaria leprieurii est une espèce de plantes de la famille des Fabaceae et du genre Crotalaria, présente en Afrique tropicale.
 Son épithète spécifique leprieurii rend hommage au botaniste et collecteur français François Mathias René Leprieur.
 </t>
         </is>
